--- a/Study 3/Models_link/Sets/Years.xlsx
+++ b/Study 3/Models_link/Sets/Years.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\loren\Documents\GitHub\SESAM\IAM-COMPACT\Models_link\Sets\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\loren\Documents\GitHub\SESAM\IAM_COMPACT_1stMC\Study 3\Models_link\Sets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0DA4562C-7F86-49E5-8897-848C5E4224A2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D0069277-BA72-4F36-B60F-E44B2B921572}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="8745" yWindow="2265" windowWidth="17250" windowHeight="10380" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="GCAM" sheetId="1" r:id="rId1"/>
@@ -161,7 +161,7 @@
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -472,17 +472,17 @@
       <selection activeCell="F22" sqref="F22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="6.44140625" customWidth="1"/>
+    <col min="1" max="1" width="6.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B1" s="2" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="4">
         <v>2005</v>
       </c>
@@ -490,7 +490,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="4">
         <v>2010</v>
       </c>
@@ -498,7 +498,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="4">
         <v>2015</v>
       </c>
@@ -506,7 +506,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="4">
         <v>2020</v>
       </c>
@@ -514,7 +514,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" s="4">
         <v>2025</v>
       </c>
@@ -522,7 +522,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" s="4">
         <v>2030</v>
       </c>
@@ -530,7 +530,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" s="4">
         <v>2035</v>
       </c>
@@ -538,7 +538,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" s="4">
         <v>2040</v>
       </c>
@@ -546,7 +546,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" s="4">
         <v>2045</v>
       </c>
@@ -554,7 +554,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" s="4">
         <v>2050</v>
       </c>
@@ -562,7 +562,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" s="4">
         <v>2055</v>
       </c>
@@ -570,7 +570,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" s="4">
         <v>2060</v>
       </c>
@@ -578,7 +578,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" s="4">
         <v>2065</v>
       </c>
@@ -586,7 +586,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" s="4">
         <v>2070</v>
       </c>
@@ -594,7 +594,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" s="4">
         <v>2075</v>
       </c>
@@ -602,7 +602,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" s="4">
         <v>2080</v>
       </c>
@@ -610,7 +610,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" s="4">
         <v>2085</v>
       </c>
@@ -618,7 +618,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" s="4">
         <v>2090</v>
       </c>
@@ -626,7 +626,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" s="4">
         <v>2095</v>
       </c>
@@ -634,7 +634,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" s="4">
         <v>2100</v>
       </c>
@@ -658,18 +658,18 @@
       <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="6.109375" customWidth="1"/>
-    <col min="2" max="2" width="9.88671875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="6.140625" customWidth="1"/>
+    <col min="2" max="2" width="9.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B1" s="2" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -677,7 +677,7 @@
         <v>2005</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
@@ -685,7 +685,7 @@
         <v>2010</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>2</v>
       </c>
@@ -693,7 +693,7 @@
         <v>2015</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>3</v>
       </c>
@@ -701,7 +701,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>4</v>
       </c>
@@ -709,7 +709,7 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>5</v>
       </c>
@@ -717,7 +717,7 @@
         <v>2030</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>6</v>
       </c>
@@ -725,7 +725,7 @@
         <v>2035</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>7</v>
       </c>
@@ -733,7 +733,7 @@
         <v>2040</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>8</v>
       </c>
@@ -741,7 +741,7 @@
         <v>2045</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>9</v>
       </c>
@@ -765,18 +765,18 @@
       <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="6.109375" customWidth="1"/>
-    <col min="2" max="2" width="9.88671875" style="2" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="6.140625" customWidth="1"/>
+    <col min="2" max="2" width="9.85546875" style="2" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B1" s="2" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>2010</v>
       </c>
@@ -784,7 +784,7 @@
         <v>2010</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>2015</v>
       </c>
@@ -792,7 +792,7 @@
         <v>2015</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>2020</v>
       </c>
@@ -800,7 +800,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>2025</v>
       </c>
@@ -808,7 +808,7 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>2030</v>
       </c>
@@ -816,7 +816,7 @@
         <v>2030</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>2035</v>
       </c>
@@ -824,7 +824,7 @@
         <v>2035</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>2040</v>
       </c>
@@ -832,7 +832,7 @@
         <v>2040</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>2045</v>
       </c>
@@ -840,7 +840,7 @@
         <v>2045</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>2050</v>
       </c>
@@ -864,18 +864,18 @@
       <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="6.109375" customWidth="1"/>
-    <col min="2" max="2" width="9.88671875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="6.140625" customWidth="1"/>
+    <col min="2" max="2" width="9.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B1" s="2" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>2005</v>
       </c>
@@ -883,7 +883,7 @@
         <v>2005</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>2010</v>
       </c>
@@ -891,7 +891,7 @@
         <v>2010</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>2015</v>
       </c>
@@ -899,7 +899,7 @@
         <v>2015</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>2020</v>
       </c>
@@ -907,7 +907,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>2025</v>
       </c>
@@ -915,7 +915,7 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>2030</v>
       </c>
@@ -923,7 +923,7 @@
         <v>2030</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>2035</v>
       </c>
@@ -931,7 +931,7 @@
         <v>2035</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>2040</v>
       </c>
@@ -939,7 +939,7 @@
         <v>2040</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>2045</v>
       </c>
@@ -947,7 +947,7 @@
         <v>2045</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>2050</v>
       </c>
